--- a/data/trans_orig/P36B11-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>15772</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8819</v>
+        <v>9387</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26261</v>
+        <v>26933</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02699950368359009</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01509796621367986</v>
+        <v>0.01607030530031537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0449565146188318</v>
+        <v>0.04610648200646897</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -764,19 +764,19 @@
         <v>17490</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10374</v>
+        <v>9755</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26819</v>
+        <v>28011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01898311103362358</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01126020213731154</v>
+        <v>0.01058735583466069</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02910871166476359</v>
+        <v>0.03040221397688334</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -785,19 +785,19 @@
         <v>33261</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23189</v>
+        <v>23442</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47421</v>
+        <v>48810</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02209355091172496</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01540324014788125</v>
+        <v>0.01557088862500253</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03149877007523008</v>
+        <v>0.03242183399793447</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>67138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52757</v>
+        <v>54143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82944</v>
+        <v>83413</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.114934825906342</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09031558631133976</v>
+        <v>0.09268789546887947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.141993873549263</v>
+        <v>0.1427956184179482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -835,19 +835,19 @@
         <v>71248</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57101</v>
+        <v>55736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88794</v>
+        <v>88221</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07733099072939484</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06197658224335581</v>
+        <v>0.06049509859689108</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09637448168187461</v>
+        <v>0.09575255365458538</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -856,19 +856,19 @@
         <v>138386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116210</v>
+        <v>117527</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162848</v>
+        <v>161882</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09192165184233524</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07719122545187296</v>
+        <v>0.07806608035327076</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1081700539669536</v>
+        <v>0.1075281254926969</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>286861</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>262243</v>
+        <v>262895</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>310329</v>
+        <v>312120</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4910815739339376</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4489379570838378</v>
+        <v>0.4500542527278705</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.531256276708345</v>
+        <v>0.5343229359521549</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>520</v>
@@ -906,19 +906,19 @@
         <v>542061</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>509706</v>
+        <v>514325</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>571961</v>
+        <v>576421</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5883400674869279</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5532226740914707</v>
+        <v>0.5582363132915175</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6207930236013938</v>
+        <v>0.625634483502886</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>800</v>
@@ -927,19 +927,19 @@
         <v>828922</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>790868</v>
+        <v>788768</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>869645</v>
+        <v>869227</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5506028070955535</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5253256831922769</v>
+        <v>0.5239305842032809</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5776529081442202</v>
+        <v>0.5773751482496096</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>205347</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183316</v>
+        <v>184937</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>229599</v>
+        <v>230657</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3515362249273954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3138219988537206</v>
+        <v>0.3165961703789373</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3930541677977171</v>
+        <v>0.3948647930429258</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>264</v>
@@ -977,19 +977,19 @@
         <v>275905</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>248840</v>
+        <v>248579</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>304263</v>
+        <v>304843</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2994613312700374</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2700852669253318</v>
+        <v>0.2698023789655933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3302395267796611</v>
+        <v>0.330870068874582</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>464</v>
@@ -998,19 +998,19 @@
         <v>481252</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>446071</v>
+        <v>445607</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>516993</v>
+        <v>520465</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3196669066394539</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2962978570651697</v>
+        <v>0.2959894988277347</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3434071324905689</v>
+        <v>0.3457137377951877</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>9024</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4457</v>
+        <v>4521</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16497</v>
+        <v>16464</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01544787154873497</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007630428252947237</v>
+        <v>0.007739836293587475</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02824207365921487</v>
+        <v>0.02818563291504473</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1048,19 +1048,19 @@
         <v>14635</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8396</v>
+        <v>8676</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23442</v>
+        <v>23363</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01588449948001618</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009112490161521413</v>
+        <v>0.009416630890433809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02544333384680248</v>
+        <v>0.0253581630444842</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -1069,19 +1069,19 @@
         <v>23659</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15178</v>
+        <v>15929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34274</v>
+        <v>34490</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01571508351093242</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01008185226332781</v>
+        <v>0.01058088025493771</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02276603922104107</v>
+        <v>0.02290980576202866</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>15479</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9171</v>
+        <v>9014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25474</v>
+        <v>25679</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01436070010059005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008507839828031105</v>
+        <v>0.008362808609435522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02363293576469197</v>
+        <v>0.02382318232445252</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1194,19 +1194,19 @@
         <v>20861</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13146</v>
+        <v>12844</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30978</v>
+        <v>30885</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01972585867591067</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01243067142088109</v>
+        <v>0.01214561370718599</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02929296560279891</v>
+        <v>0.02920434738714807</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1215,19 +1215,19 @@
         <v>36340</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25155</v>
+        <v>27041</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49225</v>
+        <v>51000</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01701770767160955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01177983728367766</v>
+        <v>0.01266278513012317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02305167895075882</v>
+        <v>0.0238829834322532</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>96780</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78355</v>
+        <v>79364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>116123</v>
+        <v>116757</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08978619828809102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0726924373200586</v>
+        <v>0.07362914817377263</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1077309648178249</v>
+        <v>0.1083192638583713</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>94</v>
@@ -1265,19 +1265,19 @@
         <v>97869</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>80796</v>
+        <v>80463</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>119162</v>
+        <v>117769</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09254466020916167</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0764004856541886</v>
+        <v>0.07608542389402478</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1126788080113938</v>
+        <v>0.1113613447204393</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>188</v>
@@ -1286,19 +1286,19 @@
         <v>194649</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>169613</v>
+        <v>169914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>219690</v>
+        <v>223678</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09115228171428606</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07942789813409534</v>
+        <v>0.07956906535574952</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1028786149236209</v>
+        <v>0.1047458851964754</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>538462</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>503024</v>
+        <v>507049</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>571306</v>
+        <v>572361</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4995501798238611</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4666732201577405</v>
+        <v>0.4704074178846442</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.530020423550234</v>
+        <v>0.5309993177662539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>512</v>
@@ -1336,19 +1336,19 @@
         <v>525667</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>494722</v>
+        <v>490223</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>557349</v>
+        <v>555291</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4970663464068026</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4678054203051693</v>
+        <v>0.46355156908783</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5270247659959266</v>
+        <v>0.5250793744416987</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1037</v>
@@ -1357,19 +1357,19 @@
         <v>1064129</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1017440</v>
+        <v>1018813</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1109181</v>
+        <v>1110522</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4983201017000507</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4764564104594241</v>
+        <v>0.4770992167091105</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5194177656015301</v>
+        <v>0.52004554453885</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>404957</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>373497</v>
+        <v>373890</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>437204</v>
+        <v>437335</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3756925799710703</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.346506517002103</v>
+        <v>0.3468710417926789</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4056092875537334</v>
+        <v>0.4057313238154243</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>373</v>
@@ -1407,19 +1407,19 @@
         <v>384128</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>354541</v>
+        <v>353885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>415524</v>
+        <v>417460</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3632285282901799</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3352516228967489</v>
+        <v>0.3346314673571009</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3929160614284681</v>
+        <v>0.3947468585708035</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>772</v>
@@ -1428,19 +1428,19 @@
         <v>789085</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>744401</v>
+        <v>745367</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>831280</v>
+        <v>837547</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3695199609856706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3485949225151086</v>
+        <v>0.3490473311853672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3892793740624901</v>
+        <v>0.3922141254121508</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>22216</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14296</v>
+        <v>14233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32418</v>
+        <v>33828</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02061034181638757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0132626796846859</v>
+        <v>0.01320442043660358</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03007521937770639</v>
+        <v>0.0313830627549114</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -1478,19 +1478,19 @@
         <v>29013</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18709</v>
+        <v>19844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41547</v>
+        <v>41692</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02743460641794514</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01769086130461832</v>
+        <v>0.01876410366548681</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03928608244940237</v>
+        <v>0.03942390041735778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -1499,19 +1499,19 @@
         <v>51229</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37705</v>
+        <v>39000</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65584</v>
+        <v>69934</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02398994792838311</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01765687045754765</v>
+        <v>0.01826311763836238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03071208769442243</v>
+        <v>0.03274952400271237</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>15065</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8368</v>
+        <v>8305</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25510</v>
+        <v>23913</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01343145667376072</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007460793752072555</v>
+        <v>0.007404283836362607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02274399421392079</v>
+        <v>0.02132050519041708</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1624,19 +1624,19 @@
         <v>13049</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6993</v>
+        <v>7464</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21950</v>
+        <v>24172</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01314236161667118</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007042717417154386</v>
+        <v>0.007517402158198407</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02210740018017129</v>
+        <v>0.02434534362148223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1645,19 +1645,19 @@
         <v>28113</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18971</v>
+        <v>18345</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40888</v>
+        <v>40259</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01329570820263031</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008971793237281965</v>
+        <v>0.008675713394463871</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01933707423912246</v>
+        <v>0.01903978438930939</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>91054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75329</v>
+        <v>74323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>109662</v>
+        <v>109592</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08118236932095355</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06716218932294118</v>
+        <v>0.06626594270932831</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09777318011136582</v>
+        <v>0.09771110153797928</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -1695,19 +1695,19 @@
         <v>53703</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41523</v>
+        <v>41333</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69897</v>
+        <v>68661</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05408858401308043</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04182118190679229</v>
+        <v>0.04162945300454843</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07039773997344205</v>
+        <v>0.06915351458842715</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>147</v>
@@ -1716,19 +1716,19 @@
         <v>144757</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>122132</v>
+        <v>122437</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>169896</v>
+        <v>170542</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06846011813580039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05775997088243657</v>
+        <v>0.05790409214852441</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08034915295828531</v>
+        <v>0.08065451112571764</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>543857</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>508210</v>
+        <v>511257</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>577132</v>
+        <v>576843</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4848963466089737</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4531144156333991</v>
+        <v>0.4558305586276117</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5145639869666052</v>
+        <v>0.5143068054717473</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>555</v>
@@ -1766,19 +1766,19 @@
         <v>559973</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>525292</v>
+        <v>528336</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>588590</v>
+        <v>590040</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5639881026973339</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.529058492582935</v>
+        <v>0.5321247117495546</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5928112861109766</v>
+        <v>0.5942714657748827</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1087</v>
@@ -1787,19 +1787,19 @@
         <v>1103829</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1056356</v>
+        <v>1054718</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1148175</v>
+        <v>1149585</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.522034944121171</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4995833444695891</v>
+        <v>0.4988084630665067</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5430074897890118</v>
+        <v>0.5436743203155733</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>439346</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>407174</v>
+        <v>408810</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>470340</v>
+        <v>473999</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3917156865072168</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3630317152058963</v>
+        <v>0.3644897411197009</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4193495656501891</v>
+        <v>0.4226115459647051</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>338</v>
@@ -1837,19 +1837,19 @@
         <v>342105</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>315436</v>
+        <v>311588</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>374032</v>
+        <v>374223</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3445580755450575</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3176976946508397</v>
+        <v>0.3138224397952163</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.376714410626534</v>
+        <v>0.3769066206783278</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>770</v>
@@ -1858,19 +1858,19 @@
         <v>781451</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>737783</v>
+        <v>738236</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>823921</v>
+        <v>827611</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3695721962147037</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3489202915148205</v>
+        <v>0.3491345654418007</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3896577594245775</v>
+        <v>0.3914030084474011</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>32273</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21945</v>
+        <v>22280</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46271</v>
+        <v>45994</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02877414088909518</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01956587147679083</v>
+        <v>0.01986454902808182</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04125507638065752</v>
+        <v>0.04100798880099811</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -1908,19 +1908,19 @@
         <v>24050</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15268</v>
+        <v>15264</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35506</v>
+        <v>35626</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02422287612785704</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01537752355834412</v>
+        <v>0.01537394981914281</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03576080578813105</v>
+        <v>0.0358815307162233</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>54</v>
@@ -1929,19 +1929,19 @@
         <v>56323</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>42991</v>
+        <v>44051</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73701</v>
+        <v>75756</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02663703332569458</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02033167397974827</v>
+        <v>0.02083289467326487</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03485549020023843</v>
+        <v>0.03582721843455922</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>5595</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2349</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12829</v>
+        <v>11226</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0125361415130301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005261861804568478</v>
+        <v>0.004480218990007495</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02874260783115922</v>
+        <v>0.02515181633924678</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2054,19 +2054,19 @@
         <v>5548</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1924</v>
+        <v>2019</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11939</v>
+        <v>11516</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01626369520694201</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005638161392549043</v>
+        <v>0.005919268247315596</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03499590799362109</v>
+        <v>0.03375675858512567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2075,19 +2075,19 @@
         <v>11144</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6130</v>
+        <v>6378</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19591</v>
+        <v>19241</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01415100106396937</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007784560589644086</v>
+        <v>0.008099696366832682</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02487798721181912</v>
+        <v>0.02443276410570182</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>28501</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19204</v>
+        <v>19273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>40360</v>
+        <v>40274</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06385516808421353</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04302672573210557</v>
+        <v>0.0431805377542653</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09042505560104221</v>
+        <v>0.0902330749665963</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -2125,19 +2125,19 @@
         <v>18958</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12101</v>
+        <v>11822</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28640</v>
+        <v>30312</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05556918434996084</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03547055098094487</v>
+        <v>0.03465118824028403</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08395050950765034</v>
+        <v>0.08885152275017486</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -2146,19 +2146,19 @@
         <v>47458</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>34868</v>
+        <v>35606</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62136</v>
+        <v>62160</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06026549478345338</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04427797963210027</v>
+        <v>0.04521418655289299</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07890336389360715</v>
+        <v>0.07893382753674165</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>234850</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>213203</v>
+        <v>213811</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>255458</v>
+        <v>255928</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5261768905054225</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4776774029980347</v>
+        <v>0.4790413122223187</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5723487152898019</v>
+        <v>0.5734030739499489</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>172</v>
@@ -2196,19 +2196,19 @@
         <v>172419</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>153770</v>
+        <v>152465</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>189645</v>
+        <v>190450</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5053941493055418</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.450729437064225</v>
+        <v>0.4469045387106566</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5558868200405372</v>
+        <v>0.5582459612654388</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>402</v>
@@ -2217,19 +2217,19 @@
         <v>407269</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>379248</v>
+        <v>379960</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>435524</v>
+        <v>433931</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5171733426353702</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4815909867726129</v>
+        <v>0.4824952699507656</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.553052895608087</v>
+        <v>0.5510305199201775</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>166924</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>145976</v>
+        <v>147174</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>188460</v>
+        <v>186676</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3739902060216683</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3270573221417407</v>
+        <v>0.3297415585574996</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4222412253257566</v>
+        <v>0.4182439671800815</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>128</v>
@@ -2267,19 +2267,19 @@
         <v>130252</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>113118</v>
+        <v>113966</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>148049</v>
+        <v>147319</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3817928198800364</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3315698707526903</v>
+        <v>0.334055941633135</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.433961531114797</v>
+        <v>0.4318206294117363</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>290</v>
@@ -2288,19 +2288,19 @@
         <v>297175</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>273402</v>
+        <v>270230</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>328009</v>
+        <v>323552</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3773704726914835</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3471820400229663</v>
+        <v>0.3431541608471243</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4165244463938551</v>
+        <v>0.4108649035408948</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>10463</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5150</v>
+        <v>5140</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18230</v>
+        <v>18046</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02344159387566557</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01153913089451828</v>
+        <v>0.01151656587064049</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04084468661662567</v>
+        <v>0.04043204974145931</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2338,19 +2338,19 @@
         <v>13981</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7917</v>
+        <v>7905</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22223</v>
+        <v>22529</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04098015125751886</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02320588548271829</v>
+        <v>0.02317185949014711</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06514055740804159</v>
+        <v>0.06603624681323521</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2359,19 +2359,19 @@
         <v>24443</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15502</v>
+        <v>15783</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>35582</v>
+        <v>35040</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03103968882572362</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01968571520493577</v>
+        <v>0.0200422618982482</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04518384062760064</v>
+        <v>0.04449602630671728</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>51911</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>38616</v>
+        <v>38963</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>67845</v>
+        <v>68589</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01607163588258768</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01195568986341543</v>
+        <v>0.01206294278148077</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0210050439206436</v>
+        <v>0.02123525316947145</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>55</v>
@@ -2484,19 +2484,19 @@
         <v>56948</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>43081</v>
+        <v>42909</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>73631</v>
+        <v>74122</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01718969670671768</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01300390227217802</v>
+        <v>0.012951907715219</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02222533459786141</v>
+        <v>0.02237372068066839</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>106</v>
@@ -2505,19 +2505,19 @@
         <v>108859</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>90364</v>
+        <v>90007</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>130879</v>
+        <v>132067</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01663775394965979</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01381111640616991</v>
+        <v>0.01375647880986112</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02000326441788932</v>
+        <v>0.02018487081035812</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>283472</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>251643</v>
+        <v>253521</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>317587</v>
+        <v>319144</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08776342227827157</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.077909088837643</v>
+        <v>0.07849038395269707</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09832525550051045</v>
+        <v>0.0988072439544397</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>235</v>
@@ -2555,19 +2555,19 @@
         <v>241779</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>212741</v>
+        <v>212143</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>273273</v>
+        <v>272312</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07298071260172463</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06421569600873242</v>
+        <v>0.0640351501602026</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08248726720346969</v>
+        <v>0.08219705881216713</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>518</v>
@@ -2576,19 +2576,19 @@
         <v>525251</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>482435</v>
+        <v>485471</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>568844</v>
+        <v>576128</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08027835630729729</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0737344668545525</v>
+        <v>0.07419841905131952</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08694100369423971</v>
+        <v>0.08805418802774463</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1604029</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1547139</v>
+        <v>1547840</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1660938</v>
+        <v>1660973</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.496609531337147</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4789962240989515</v>
+        <v>0.4792133095100015</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5142286442603661</v>
+        <v>0.5142394231955835</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1759</v>
@@ -2626,19 +2626,19 @@
         <v>1800119</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1744183</v>
+        <v>1744808</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1859802</v>
+        <v>1857653</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5433640679845428</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5264797558840097</v>
+        <v>0.5266684956375348</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5613792544231302</v>
+        <v>0.5607306341219646</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3326</v>
@@ -2647,19 +2647,19 @@
         <v>3404148</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3324092</v>
+        <v>3322125</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3488332</v>
+        <v>3486567</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.520283187852455</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5080475413064885</v>
+        <v>0.5077468965134956</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.53314963388562</v>
+        <v>0.5328799436174048</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>1216573</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1157944</v>
+        <v>1160470</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1266178</v>
+        <v>1269244</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3766526151924458</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3585009229966145</v>
+        <v>0.3592830730708076</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3920104142408186</v>
+        <v>0.3929594559603202</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1103</v>
@@ -2697,19 +2697,19 @@
         <v>1132390</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1079878</v>
+        <v>1077153</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1187728</v>
+        <v>1186843</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3418107208040713</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3259600911890458</v>
+        <v>0.3251374839015626</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3585144253747652</v>
+        <v>0.3582473220959735</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2296</v>
@@ -2718,19 +2718,19 @@
         <v>2348963</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2262081</v>
+        <v>2267997</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2419867</v>
+        <v>2421721</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3590107968954623</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3457318683151441</v>
+        <v>0.3466360923345553</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3698476168576646</v>
+        <v>0.3701310374741689</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>73975</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>56802</v>
+        <v>59354</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>93304</v>
+        <v>94544</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02290279530954798</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01758596303233585</v>
+        <v>0.01837605130883908</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02888695555376304</v>
+        <v>0.02927087213682677</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>80</v>
@@ -2768,19 +2768,19 @@
         <v>81679</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>65755</v>
+        <v>64919</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>101302</v>
+        <v>102134</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02465480190294346</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01984813545225127</v>
+        <v>0.01959566314920823</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03057786338145466</v>
+        <v>0.03082909411807478</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>153</v>
@@ -2789,19 +2789,19 @@
         <v>155654</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>129549</v>
+        <v>133156</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>179416</v>
+        <v>181068</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02378990499512562</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01980003159307242</v>
+        <v>0.0203512938839401</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02742150769865682</v>
+        <v>0.02767414292961351</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>18174</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11131</v>
+        <v>10083</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30225</v>
+        <v>28537</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01747740866313334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01070477790749262</v>
+        <v>0.009697018945350135</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02906727496957717</v>
+        <v>0.02744343007403332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -3154,19 +3154,19 @@
         <v>15176</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8871</v>
+        <v>8823</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24350</v>
+        <v>24371</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01357603727653589</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007935857344840766</v>
+        <v>0.007893294479632563</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02178322410064372</v>
+        <v>0.02180220407659866</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -3175,19 +3175,19 @@
         <v>33349</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22950</v>
+        <v>22610</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47300</v>
+        <v>50242</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01545620136747402</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01063636544442282</v>
+        <v>0.01047883684991762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02192194541724413</v>
+        <v>0.02328548868400928</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>125806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105195</v>
+        <v>105994</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150606</v>
+        <v>149267</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.120986744856975</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1011651436517918</v>
+        <v>0.1019334469733491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1448372635109134</v>
+        <v>0.1435488981145669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>107</v>
@@ -3225,19 +3225,19 @@
         <v>117848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99992</v>
+        <v>97129</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>142370</v>
+        <v>138720</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1054254875442485</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08945154355850915</v>
+        <v>0.08689027780410473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1273617993473412</v>
+        <v>0.124096643160111</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>220</v>
@@ -3246,19 +3246,19 @@
         <v>243654</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>214402</v>
+        <v>213758</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>276130</v>
+        <v>274505</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1129248292654051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09936753333624622</v>
+        <v>0.09906877968811947</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1279760594349524</v>
+        <v>0.127222949676505</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>535183</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>500803</v>
+        <v>502150</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>566782</v>
+        <v>568834</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5146817104232778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4816195891084964</v>
+        <v>0.4829150129514662</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.545070878514661</v>
+        <v>0.5470441296382796</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>533</v>
@@ -3296,19 +3296,19 @@
         <v>577766</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>541786</v>
+        <v>544171</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>612215</v>
+        <v>612860</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5168615470070422</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4846743614044857</v>
+        <v>0.4868078184427078</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5476784077680644</v>
+        <v>0.5482555744869944</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1038</v>
@@ -3317,19 +3317,19 @@
         <v>1112949</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1064484</v>
+        <v>1063884</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1165703</v>
+        <v>1159421</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5158110316721047</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4933495017150294</v>
+        <v>0.4930712730771396</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5402606596101348</v>
+        <v>0.5373492432569522</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>331235</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>301148</v>
+        <v>301437</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>366591</v>
+        <v>365111</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3185463850879786</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2896119631326651</v>
+        <v>0.2898896395875112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3525484188067867</v>
+        <v>0.3511248189272962</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>348</v>
@@ -3367,19 +3367,19 @@
         <v>379291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>347615</v>
+        <v>347641</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>411932</v>
+        <v>411626</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3393084959293021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3109717300745254</v>
+        <v>0.3109950218403186</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3685080087438472</v>
+        <v>0.3682344078205561</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>662</v>
@@ -3388,19 +3388,19 @@
         <v>710526</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>668405</v>
+        <v>664500</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>760748</v>
+        <v>756000</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3293027386230286</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3097810426153406</v>
+        <v>0.307971337018036</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3525786938543033</v>
+        <v>0.3503783952946805</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>29435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19718</v>
+        <v>19798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42558</v>
+        <v>43661</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02830775096863523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0189628260958748</v>
+        <v>0.01904007578538164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04092809842760132</v>
+        <v>0.04198822915920225</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -3438,19 +3438,19 @@
         <v>27754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18652</v>
+        <v>19039</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40267</v>
+        <v>40549</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02482843224287132</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01668623473424168</v>
+        <v>0.01703179353230634</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03602188545575825</v>
+        <v>0.03627452118066835</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -3459,19 +3459,19 @@
         <v>57189</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43353</v>
+        <v>42739</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>74660</v>
+        <v>73866</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02650519907198759</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02009252892611711</v>
+        <v>0.01980798135776035</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0346020241168917</v>
+        <v>0.03423426490877273</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>14779</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8746</v>
+        <v>8733</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25140</v>
+        <v>25655</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01515647784591048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008969344332734186</v>
+        <v>0.008956077267608796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02578237391362779</v>
+        <v>0.02630975684815145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3584,19 +3584,19 @@
         <v>18454</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11061</v>
+        <v>11285</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29207</v>
+        <v>29492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0168941984854449</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01012600306240669</v>
+        <v>0.01033078845539382</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02673830927641091</v>
+        <v>0.02699891238819862</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -3605,19 +3605,19 @@
         <v>33233</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23067</v>
+        <v>22848</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48059</v>
+        <v>46523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01607460353673202</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01115710766972301</v>
+        <v>0.01105117970192146</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02324575565328987</v>
+        <v>0.02250269112559718</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>87681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>72044</v>
+        <v>70450</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>107192</v>
+        <v>107826</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08991990464226247</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07388305463982896</v>
+        <v>0.07224884152727004</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1099291113844962</v>
+        <v>0.1105788812297723</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -3655,19 +3655,19 @@
         <v>66818</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52343</v>
+        <v>51166</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>85511</v>
+        <v>84021</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06117036179037518</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04791872096696923</v>
+        <v>0.04684141909019741</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07828323836471962</v>
+        <v>0.07691873634150324</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>150</v>
@@ -3676,19 +3676,19 @@
         <v>154499</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>131569</v>
+        <v>132327</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>180362</v>
+        <v>179104</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07473006728223411</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06363874598781984</v>
+        <v>0.06400548594292782</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08723973716389116</v>
+        <v>0.08663097068270312</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>527177</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>492057</v>
+        <v>492940</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>557226</v>
+        <v>559493</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5406370902787876</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5046206519591777</v>
+        <v>0.5055263800908742</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5714537019496516</v>
+        <v>0.5737779262297087</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>582</v>
@@ -3726,19 +3726,19 @@
         <v>622287</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>588707</v>
+        <v>588562</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>657341</v>
+        <v>658106</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.569688347217419</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.538947044913395</v>
+        <v>0.5388139279799047</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6017794406390886</v>
+        <v>0.6024792539148094</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1083</v>
@@ -3747,19 +3747,19 @@
         <v>1149464</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1100177</v>
+        <v>1100361</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1198508</v>
+        <v>1193904</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5559863384485977</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5321467269095731</v>
+        <v>0.5322354409693481</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5797085440927831</v>
+        <v>0.5774815179461543</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>318896</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>287894</v>
+        <v>290825</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>351207</v>
+        <v>353689</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3270383254086999</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2952445963909621</v>
+        <v>0.2982509379691307</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3601740823791249</v>
+        <v>0.362719269696356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>332</v>
@@ -3797,19 +3797,19 @@
         <v>359023</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>324468</v>
+        <v>323666</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>391803</v>
+        <v>388397</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3286770085995707</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2970419603538548</v>
+        <v>0.296308130611887</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3586858444285501</v>
+        <v>0.3555680337222885</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>626</v>
@@ -3818,19 +3818,19 @@
         <v>677919</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>635421</v>
+        <v>636183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>723796</v>
+        <v>723870</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3279041246070446</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3073479323084717</v>
+        <v>0.3077167141829273</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3500940507090372</v>
+        <v>0.3501301227602883</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>26570</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17330</v>
+        <v>18366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38785</v>
+        <v>39537</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02724820182433954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01777243004071849</v>
+        <v>0.01883458611889967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03977512979778189</v>
+        <v>0.04054698671964205</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -3868,19 +3868,19 @@
         <v>25746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16792</v>
+        <v>17156</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36868</v>
+        <v>37058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02357008390719015</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01537277808086096</v>
+        <v>0.01570623835290714</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03375210327205287</v>
+        <v>0.03392596983422674</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -3889,19 +3889,19 @@
         <v>52316</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>39301</v>
+        <v>39444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66463</v>
+        <v>69433</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02530486612539162</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01900959450687305</v>
+        <v>0.01907860791402603</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03214773471489707</v>
+        <v>0.0335842751210557</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>8327</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3860</v>
+        <v>3983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15893</v>
+        <v>15494</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009418486517078706</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00436632877225948</v>
+        <v>0.004505502036836717</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01797742432625389</v>
+        <v>0.01752573125335833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7803</v>
+        <v>8341</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002590166634451165</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008919903104664558</v>
+        <v>0.009534200130969731</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -4035,19 +4035,19 @@
         <v>10593</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5528</v>
+        <v>5299</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18886</v>
+        <v>19276</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006022276935066238</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003142731666134796</v>
+        <v>0.003012603870530617</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01073729422732339</v>
+        <v>0.0109592362400286</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>78582</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62146</v>
+        <v>63474</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98625</v>
+        <v>98588</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08888725158013412</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07029529305115484</v>
+        <v>0.07179762772422624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1115582505175094</v>
+        <v>0.1115169006576213</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -4085,19 +4085,19 @@
         <v>57667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43311</v>
+        <v>44724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>72699</v>
+        <v>74849</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06591895995887691</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04950879075820861</v>
+        <v>0.05112377943252596</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0831014200662246</v>
+        <v>0.08555964099028297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>130</v>
@@ -4106,19 +4106,19 @@
         <v>136250</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>114573</v>
+        <v>115958</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>160367</v>
+        <v>161521</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07746348505668384</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06513934815144595</v>
+        <v>0.06592681707046216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09117523532678105</v>
+        <v>0.09183127218272977</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>463276</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>434340</v>
+        <v>432516</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>493474</v>
+        <v>492706</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5240281187707138</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4912973036736572</v>
+        <v>0.4892341236127037</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5581862396897503</v>
+        <v>0.5573173827765469</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>422</v>
@@ -4156,19 +4156,19 @@
         <v>452105</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>422093</v>
+        <v>423336</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>483131</v>
+        <v>482332</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5167975623090391</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4824916163673539</v>
+        <v>0.4839120661253646</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5522636552270408</v>
+        <v>0.5513501195649533</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>865</v>
@@ -4177,19 +4177,19 @@
         <v>915381</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>871525</v>
+        <v>866717</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>959682</v>
+        <v>955507</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5204318483029376</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4954980058349533</v>
+        <v>0.4927645939889621</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5456191729950151</v>
+        <v>0.5432451657484586</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>307623</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>281172</v>
+        <v>278570</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>341865</v>
+        <v>337536</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.347963228906377</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3180438497666311</v>
+        <v>0.315100037305014</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3866957960601392</v>
+        <v>0.3817992405335475</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>310</v>
@@ -4227,19 +4227,19 @@
         <v>331932</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>302804</v>
+        <v>305734</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>363283</v>
+        <v>360068</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3794286264399976</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3461333297811265</v>
+        <v>0.3494816324843201</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4152658150011541</v>
+        <v>0.4115905072232491</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>591</v>
@@ -4248,19 +4248,19 @@
         <v>639555</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>595046</v>
+        <v>599999</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>681658</v>
+        <v>685650</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.363613211104398</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3383084921704264</v>
+        <v>0.341124275361883</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3875506656804361</v>
+        <v>0.3898204840448004</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>26259</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17486</v>
+        <v>17478</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40642</v>
+        <v>39302</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02970291422569643</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01977934899178144</v>
+        <v>0.0197699142765118</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04597186719477052</v>
+        <v>0.04445563615020082</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -4298,19 +4298,19 @@
         <v>30850</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20812</v>
+        <v>20816</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43362</v>
+        <v>44049</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0352646846576352</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02378949350176296</v>
+        <v>0.02379460319661665</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04956689847791626</v>
+        <v>0.05035162890826909</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>53</v>
@@ -4319,19 +4319,19 @@
         <v>57110</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43933</v>
+        <v>42894</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>74910</v>
+        <v>74427</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03246917860091425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02497775041936078</v>
+        <v>0.02438698466135764</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04258936494546897</v>
+        <v>0.04231481709321262</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>7806</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3019</v>
+        <v>3179</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16449</v>
+        <v>16417</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01551812092015571</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006000992169806295</v>
+        <v>0.00631919719162683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03269935332902776</v>
+        <v>0.03263669935216565</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4444,19 +4444,19 @@
         <v>10151</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5163</v>
+        <v>5212</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18571</v>
+        <v>17977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0226171476516724</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01150367325683455</v>
+        <v>0.01161284648842871</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04137864238525082</v>
+        <v>0.0400549714529547</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4465,19 +4465,19 @@
         <v>17957</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9931</v>
+        <v>9961</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28326</v>
+        <v>29162</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01886546847304623</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01043363066302611</v>
+        <v>0.01046551241344922</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02975902310771936</v>
+        <v>0.030637775072865</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>33437</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22630</v>
+        <v>23151</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46658</v>
+        <v>46914</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06647127643670904</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04498755850433367</v>
+        <v>0.04602361935737412</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09275467794891099</v>
+        <v>0.09326368141318611</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -4515,19 +4515,19 @@
         <v>17833</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10528</v>
+        <v>11000</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26947</v>
+        <v>27985</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03973364173919677</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02345823971167931</v>
+        <v>0.02450962034622407</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06004058113233408</v>
+        <v>0.0623530776773527</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>48</v>
@@ -4536,19 +4536,19 @@
         <v>51269</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>38000</v>
+        <v>38195</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>67858</v>
+        <v>65748</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05386389243046839</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0399234855534644</v>
+        <v>0.04012770023388858</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07129207379170123</v>
+        <v>0.06907478540462694</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>247682</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>220927</v>
+        <v>223244</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>269969</v>
+        <v>272360</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4923860566686512</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4391984119041508</v>
+        <v>0.443803829842717</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5366931910594732</v>
+        <v>0.5414473461450391</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>177</v>
@@ -4586,19 +4586,19 @@
         <v>192508</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>170975</v>
+        <v>169422</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>213538</v>
+        <v>213648</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4289306034107164</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3809508158713729</v>
+        <v>0.3774906766783341</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4757861000312872</v>
+        <v>0.4760320831036502</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>402</v>
@@ -4607,19 +4607,19 @@
         <v>440190</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>408372</v>
+        <v>407148</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>473139</v>
+        <v>470604</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4624654120206311</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4290376036831104</v>
+        <v>0.4277513647455253</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4970819165297378</v>
+        <v>0.4944186626001298</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>202286</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>180221</v>
+        <v>180717</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>224803</v>
+        <v>228448</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4021412300947272</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3582763952039988</v>
+        <v>0.3592620920482256</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4469036702681104</v>
+        <v>0.4541496336565962</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>194</v>
@@ -4657,19 +4657,19 @@
         <v>212724</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>190832</v>
+        <v>192584</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>236483</v>
+        <v>234929</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4739724374803126</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4251956868677488</v>
+        <v>0.429098212154792</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5269108553442959</v>
+        <v>0.5234487835934286</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>381</v>
@@ -4678,19 +4678,19 @@
         <v>415010</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>382464</v>
+        <v>382385</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>447558</v>
+        <v>449958</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4360112273995466</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4018181881471474</v>
+        <v>0.4017352726088496</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4702060319480325</v>
+        <v>0.4727280040078952</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>11813</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5784</v>
+        <v>6532</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19798</v>
+        <v>20103</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02348331587975687</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01149811923817511</v>
+        <v>0.01298474685831452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03935781392041043</v>
+        <v>0.03996501521898958</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -4728,19 +4728,19 @@
         <v>15594</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8191</v>
+        <v>8128</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28280</v>
+        <v>29041</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03474616971810178</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0182505798697024</v>
+        <v>0.0181099618127285</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06301093981726594</v>
+        <v>0.06470609076881451</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -4749,19 +4749,19 @@
         <v>27407</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16167</v>
+        <v>16859</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40010</v>
+        <v>40735</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02879399967630777</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01698516763377835</v>
+        <v>0.01771232222092912</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04203487727571863</v>
+        <v>0.04279674098395484</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>49085</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>35992</v>
+        <v>35846</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>66227</v>
+        <v>65241</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01442824191234924</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01057965430868889</v>
+        <v>0.01053652539844696</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01946686783623229</v>
+        <v>0.01917696416468395</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -4874,19 +4874,19 @@
         <v>46047</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34108</v>
+        <v>34649</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60262</v>
+        <v>62875</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01303033802759232</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009651980790149587</v>
+        <v>0.009805094253715728</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0170529671382845</v>
+        <v>0.01779248493435013</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>88</v>
@@ -4895,19 +4895,19 @@
         <v>95132</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>76118</v>
+        <v>75922</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>115543</v>
+        <v>116333</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01371601093116951</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01097458462036337</v>
+        <v>0.01094636716299718</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01665881071401741</v>
+        <v>0.01677274695868555</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>325506</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>292404</v>
+        <v>290634</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>362091</v>
+        <v>358987</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09568005323639761</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08594984182958221</v>
+        <v>0.08542958387979266</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1064339916009315</v>
+        <v>0.1055215806979682</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>243</v>
@@ -4945,19 +4945,19 @@
         <v>260167</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>229249</v>
+        <v>226992</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>295503</v>
+        <v>293587</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07362245422473902</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06487340821526823</v>
+        <v>0.06423466089648674</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08362205781869261</v>
+        <v>0.0830798491084986</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>548</v>
@@ -4966,19 +4966,19 @@
         <v>585673</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>532029</v>
+        <v>539088</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>630300</v>
+        <v>631982</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08444172307804465</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07670742337225406</v>
+        <v>0.07772526814074539</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09087600311076269</v>
+        <v>0.09111851679329083</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>1773317</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1708578</v>
+        <v>1715019</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1837061</v>
+        <v>1829376</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.521253328690764</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5022239329391667</v>
+        <v>0.5041172202125258</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5399905657074939</v>
+        <v>0.5377316339416115</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1714</v>
@@ -5016,19 +5016,19 @@
         <v>1844667</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1788495</v>
+        <v>1781787</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1908127</v>
+        <v>1909479</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.522007282582752</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5061117017791597</v>
+        <v>0.5042135662183628</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5399653348636211</v>
+        <v>0.5403479481377602</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3388</v>
@@ -5037,19 +5037,19 @@
         <v>3617984</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3535870</v>
+        <v>3530730</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3702869</v>
+        <v>3703611</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5216374676334412</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5097983907471316</v>
+        <v>0.509057365687352</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5338761680389713</v>
+        <v>0.5339832192786166</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>1160040</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1106456</v>
+        <v>1104367</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1219762</v>
+        <v>1216449</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3409851035572597</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3252345274638493</v>
+        <v>0.3246203481442809</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3585400948794189</v>
+        <v>0.3575661055349355</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1184</v>
@@ -5087,19 +5087,19 @@
         <v>1282970</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1219536</v>
+        <v>1224164</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1338125</v>
+        <v>1342215</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.363057277902602</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.345106493305341</v>
+        <v>0.3464162974676293</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3786650484154683</v>
+        <v>0.3798225927667069</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2260</v>
@@ -5108,19 +5108,19 @@
         <v>2443010</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2365509</v>
+        <v>2363470</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2518552</v>
+        <v>2531310</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3522308598371964</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3410568349342226</v>
+        <v>0.3407629109433941</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3631224791719322</v>
+        <v>0.3649618304565344</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>94077</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>75340</v>
+        <v>76378</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>115125</v>
+        <v>114317</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02765327260322941</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02214552098214635</v>
+        <v>0.02245060317821782</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03384015630116693</v>
+        <v>0.03360262394884166</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>91</v>
@@ -5158,19 +5158,19 @@
         <v>99945</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>80720</v>
+        <v>81052</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>122485</v>
+        <v>124312</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02828264726231472</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02284233786737267</v>
+        <v>0.02293620387729499</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03466102559146699</v>
+        <v>0.03517794332938157</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>178</v>
@@ -5179,19 +5179,19 @@
         <v>194022</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>169768</v>
+        <v>167846</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>226050</v>
+        <v>227307</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02797393852014825</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0244769357092588</v>
+        <v>0.02419980822190541</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0325917125433087</v>
+        <v>0.0327728448052758</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>22177</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13572</v>
+        <v>14999</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33118</v>
+        <v>34734</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01970454463809698</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01205904141994742</v>
+        <v>0.013326695115314</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02942587997163981</v>
+        <v>0.03086188457308994</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -5544,19 +5544,19 @@
         <v>14226</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7437</v>
+        <v>7880</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23804</v>
+        <v>22887</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01132148639334937</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005918223633988218</v>
+        <v>0.006271254738273266</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01894348096479418</v>
+        <v>0.01821346620130995</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -5565,19 +5565,19 @@
         <v>36403</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25641</v>
+        <v>26200</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50523</v>
+        <v>49937</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01528230339182817</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01076412321426967</v>
+        <v>0.01099900678751152</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02120987108779192</v>
+        <v>0.02096388523734923</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>143000</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119695</v>
+        <v>121293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167540</v>
+        <v>168094</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1270583589435408</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1063512874372895</v>
+        <v>0.1077713980299171</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1488618540667382</v>
+        <v>0.1493547495740178</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -5615,19 +5615,19 @@
         <v>124855</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105728</v>
+        <v>105588</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146898</v>
+        <v>145920</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09936076423234869</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08413909907001978</v>
+        <v>0.08402783670411543</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1169029207302145</v>
+        <v>0.1161244505493482</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>252</v>
@@ -5636,19 +5636,19 @@
         <v>267856</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>238106</v>
+        <v>238301</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>299742</v>
+        <v>300266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.112447289548787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09995822465333346</v>
+        <v>0.100040133734116</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1258331924217406</v>
+        <v>0.1260533566221942</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>654852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>619266</v>
+        <v>617374</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>690070</v>
+        <v>685229</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5818472585689006</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5502290045725345</v>
+        <v>0.548547779937684</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6131389814546069</v>
+        <v>0.6088378070228937</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>682</v>
@@ -5686,19 +5686,19 @@
         <v>720014</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>681649</v>
+        <v>683591</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>752442</v>
+        <v>753588</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5729935205548655</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5424616504310615</v>
+        <v>0.5440073368775099</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5987999324078951</v>
+        <v>0.5997115845847961</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1301</v>
@@ -5707,19 +5707,19 @@
         <v>1374867</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1327086</v>
+        <v>1327889</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1423693</v>
+        <v>1422003</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.577176723749003</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5571179596661053</v>
+        <v>0.5574553510180628</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5976743396992793</v>
+        <v>0.5969648791975282</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>290255</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>261790</v>
+        <v>260962</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>324796</v>
+        <v>319966</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2578964983268951</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2326046932147672</v>
+        <v>0.2318690017395406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2885867359609457</v>
+        <v>0.2842952988636434</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>338</v>
@@ -5757,19 +5757,19 @@
         <v>363178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>332356</v>
+        <v>329429</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>398888</v>
+        <v>395476</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2890200114501132</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.264491341468817</v>
+        <v>0.2621624055988701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3174381764694413</v>
+        <v>0.3147232331627928</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>615</v>
@@ -5778,19 +5778,19 @@
         <v>653433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>602674</v>
+        <v>610298</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>694138</v>
+        <v>698617</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2743148124366079</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2530058513615654</v>
+        <v>0.2562065124196145</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2914029213951786</v>
+        <v>0.2932831799809398</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>15186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8658</v>
+        <v>8178</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25722</v>
+        <v>23920</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01349333952256649</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007692831402157622</v>
+        <v>0.007266230084727654</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02285462810215886</v>
+        <v>0.02125338892475677</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -5828,19 +5828,19 @@
         <v>34310</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24182</v>
+        <v>24406</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48011</v>
+        <v>48610</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02730421736932311</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01924395666581916</v>
+        <v>0.01942275606577238</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03820743494892476</v>
+        <v>0.0386840291139275</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>46</v>
@@ -5849,19 +5849,19 @@
         <v>49496</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37682</v>
+        <v>37473</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>64887</v>
+        <v>65669</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02077887087377399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01581894264918711</v>
+        <v>0.01573121427944956</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02723994986878768</v>
+        <v>0.0275683535550017</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>12712</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6464</v>
+        <v>7033</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20621</v>
+        <v>21028</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01405245449439182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007144988068365993</v>
+        <v>0.007774675030457754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02279553732526244</v>
+        <v>0.02324531165433488</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5974,19 +5974,19 @@
         <v>13976</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8214</v>
+        <v>7723</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23066</v>
+        <v>23321</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01392774679973077</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008185952268527133</v>
+        <v>0.007696793146984101</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0229862530033226</v>
+        <v>0.02324087153171412</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -5995,19 +5995,19 @@
         <v>26688</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18825</v>
+        <v>18270</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38329</v>
+        <v>38114</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01398687063860563</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009866111840628994</v>
+        <v>0.009575051579731465</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02008775307043987</v>
+        <v>0.01997474168538106</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>86267</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>70265</v>
+        <v>69044</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>106194</v>
+        <v>107358</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09536192727414959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07767342060368984</v>
+        <v>0.07632290242413969</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1173902741396083</v>
+        <v>0.1186761466699821</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -6045,19 +6045,19 @@
         <v>88501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71193</v>
+        <v>73137</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>108319</v>
+        <v>107368</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08819547845946243</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07094665809521605</v>
+        <v>0.07288410983641595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.107944841135993</v>
+        <v>0.1069966516415689</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>165</v>
@@ -6066,19 +6066,19 @@
         <v>174768</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>149803</v>
+        <v>149596</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>201274</v>
+        <v>201077</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09159308729327303</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07850922202928272</v>
+        <v>0.07840067654122028</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.105484244002531</v>
+        <v>0.1053809016220486</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>575050</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>544072</v>
+        <v>543522</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>600821</v>
+        <v>601714</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6356766536392076</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6014332986351022</v>
+        <v>0.6008249476387452</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6641647830618923</v>
+        <v>0.6651525372213467</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>604</v>
@@ -6116,19 +6116,19 @@
         <v>633926</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>599784</v>
+        <v>602635</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>664072</v>
+        <v>663388</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6317352746420162</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5977108321430019</v>
+        <v>0.6005522087697129</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6617770184797891</v>
+        <v>0.6610957766433031</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1165</v>
@@ -6137,19 +6137,19 @@
         <v>1208976</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1166333</v>
+        <v>1167741</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1249174</v>
+        <v>1251998</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6336038799226132</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6112557748438066</v>
+        <v>0.6119933965009619</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6546711559709385</v>
+        <v>0.6561510660912523</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>217300</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>192474</v>
+        <v>193667</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>243487</v>
+        <v>244501</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2402099477650904</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.212766406561068</v>
+        <v>0.2140849666747293</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2691576665519064</v>
+        <v>0.2702781749833335</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>236</v>
@@ -6187,19 +6187,19 @@
         <v>257216</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>228331</v>
+        <v>232603</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>285445</v>
+        <v>286252</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2563275399767609</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2275417886986807</v>
+        <v>0.2317990771945264</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2844582204491705</v>
+        <v>0.2852630119503454</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>446</v>
@@ -6208,19 +6208,19 @@
         <v>474517</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>440458</v>
+        <v>435660</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>514241</v>
+        <v>515621</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2486861997405899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2308366497321647</v>
+        <v>0.2283221495745972</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2695048674334006</v>
+        <v>0.2702283341112452</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>13297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7079</v>
+        <v>7253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22215</v>
+        <v>22857</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01469901682716073</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007825824085918021</v>
+        <v>0.008017823845369546</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02455688181401412</v>
+        <v>0.02526730964042118</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -6258,19 +6258,19 @@
         <v>9848</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5067</v>
+        <v>5187</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17815</v>
+        <v>17329</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009813960122029687</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00504961381793111</v>
+        <v>0.005168915978632878</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01775301265536448</v>
+        <v>0.01726930055800847</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -6279,19 +6279,19 @@
         <v>23145</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14187</v>
+        <v>14412</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33132</v>
+        <v>33220</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01212996240491817</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007435003181425573</v>
+        <v>0.007553176657410569</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01736415101658395</v>
+        <v>0.01741022509816744</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>10931</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4816</v>
+        <v>5205</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20829</v>
+        <v>20097</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01327003955798385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00584630772181091</v>
+        <v>0.006318434994339018</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02528564657937162</v>
+        <v>0.02439722037842659</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -6404,19 +6404,19 @@
         <v>14644</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8221</v>
+        <v>8180</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23510</v>
+        <v>24040</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01899169375082515</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01066192649862753</v>
+        <v>0.01060859438156933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03049036202670757</v>
+        <v>0.03117837076077272</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -6425,19 +6425,19 @@
         <v>25575</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15998</v>
+        <v>16642</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39049</v>
+        <v>38130</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01603633091670265</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01003103402452675</v>
+        <v>0.01043511938329609</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02448504421276567</v>
+        <v>0.02390896966284029</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>41828</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30060</v>
+        <v>31260</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>57483</v>
+        <v>57246</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05077705695535902</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03649156225042171</v>
+        <v>0.03794770323490804</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0697812099959063</v>
+        <v>0.06949406640495871</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -6475,19 +6475,19 @@
         <v>50765</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38056</v>
+        <v>37880</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66387</v>
+        <v>66134</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06583765045572182</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04935603716103553</v>
+        <v>0.04912754519926124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08609795215030881</v>
+        <v>0.08577083925819841</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>90</v>
@@ -6496,19 +6496,19 @@
         <v>92593</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75044</v>
+        <v>75595</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>112611</v>
+        <v>113183</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.058058515822509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04705506557865425</v>
+        <v>0.04740037788385364</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07061056005411506</v>
+        <v>0.07096903859760316</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>527881</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>499574</v>
+        <v>498183</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>555558</v>
+        <v>553140</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6408198763046099</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6064568798268325</v>
+        <v>0.6047675665151361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6744184000870166</v>
+        <v>0.671482851035099</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>456</v>
@@ -6546,19 +6546,19 @@
         <v>480945</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>451043</v>
+        <v>455636</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>507933</v>
+        <v>511737</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6237454141443496</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5849657697665164</v>
+        <v>0.5909227627307581</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6587467833387379</v>
+        <v>0.6636806180664228</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>969</v>
@@ -6567,19 +6567,19 @@
         <v>1008826</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>969303</v>
+        <v>968564</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1046901</v>
+        <v>1049811</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.63256475714907</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6077826576584306</v>
+        <v>0.6073191637067877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6564389752285832</v>
+        <v>0.6582638960259539</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>235085</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>208851</v>
+        <v>209870</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>261432</v>
+        <v>262606</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.285380412157435</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2535341859244453</v>
+        <v>0.2547714375378359</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3173646189838129</v>
+        <v>0.3187893164237977</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>199</v>
@@ -6617,19 +6617,19 @@
         <v>214062</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189613</v>
+        <v>187498</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>240875</v>
+        <v>238462</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2776207978293194</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2459129537633774</v>
+        <v>0.2431696141645203</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3123943884779779</v>
+        <v>0.309265205385999</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>418</v>
@@ -6638,19 +6638,19 @@
         <v>449147</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>411531</v>
+        <v>410735</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>484601</v>
+        <v>487399</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2816288128228032</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.258042850433298</v>
+        <v>0.2575433348692185</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3038595472710428</v>
+        <v>0.3056143601296721</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>8034</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3218</v>
+        <v>3413</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17353</v>
+        <v>17674</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009752615024612265</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003906744582599529</v>
+        <v>0.004143506231210503</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02106607003449969</v>
+        <v>0.0214547825491772</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -6688,19 +6688,19 @@
         <v>10644</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5145</v>
+        <v>4823</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19801</v>
+        <v>19847</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0138044438197841</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006672073635981277</v>
+        <v>0.006255595121079549</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.025680824337989</v>
+        <v>0.02574039365354849</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -6709,19 +6709,19 @@
         <v>18678</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10924</v>
+        <v>11024</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31397</v>
+        <v>30782</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01171158328891518</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006849644895553259</v>
+        <v>0.006912638768942349</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01968696545360285</v>
+        <v>0.01930145092620076</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>7936</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3262</v>
+        <v>3097</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16376</v>
+        <v>15199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01572364982465634</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00646191435387218</v>
+        <v>0.006136562721807202</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03244461795929379</v>
+        <v>0.03011180327681382</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -6834,19 +6834,19 @@
         <v>10662</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5527</v>
+        <v>5489</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18746</v>
+        <v>19530</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02182117808749153</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01131252357856383</v>
+        <v>0.01123393188683292</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03836733161354151</v>
+        <v>0.03997351171238829</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -6855,19 +6855,19 @@
         <v>18598</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10848</v>
+        <v>11858</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29411</v>
+        <v>29581</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01872282831022622</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01092064493445996</v>
+        <v>0.01193783695107864</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0296084359564495</v>
+        <v>0.02977977302467318</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>53351</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>39361</v>
+        <v>40005</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>69133</v>
+        <v>69332</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1056998190739791</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07798179267285872</v>
+        <v>0.0792578387238113</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1369665617193391</v>
+        <v>0.1373623482941178</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -6905,19 +6905,19 @@
         <v>37712</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26666</v>
+        <v>27051</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>51971</v>
+        <v>52111</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07718519184370376</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05457791841862124</v>
+        <v>0.05536595367325691</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1063708849824451</v>
+        <v>0.1066575150779666</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>83</v>
@@ -6926,19 +6926,19 @@
         <v>91063</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>73809</v>
+        <v>73358</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>112257</v>
+        <v>112066</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09167438896087257</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07430528945150423</v>
+        <v>0.07385053944258126</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1130108520900534</v>
+        <v>0.112818777199081</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>285870</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>261218</v>
+        <v>264083</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>309556</v>
+        <v>308446</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5663697255575558</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5175295291090721</v>
+        <v>0.5232058400214425</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6132964298899898</v>
+        <v>0.6110968816363411</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>264</v>
@@ -6976,19 +6976,19 @@
         <v>280787</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>258410</v>
+        <v>257214</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>303251</v>
+        <v>301019</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5746952560102346</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5288936528060952</v>
+        <v>0.5264466982153099</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6206722998207627</v>
+        <v>0.6161038794310523</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>533</v>
@@ -6997,19 +6997,19 @@
         <v>566658</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>531110</v>
+        <v>536199</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>598375</v>
+        <v>599496</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5704647868247291</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5346774323598028</v>
+        <v>0.539801254497581</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.602394964635523</v>
+        <v>0.6035229599167824</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>153969</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>132487</v>
+        <v>134468</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178291</v>
+        <v>177413</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.30504627990037</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2624843572258973</v>
+        <v>0.2664095496109984</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3532319337390817</v>
+        <v>0.3514938134914574</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>139</v>
@@ -7047,19 +7047,19 @@
         <v>152299</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>131241</v>
+        <v>131612</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>174804</v>
+        <v>173260</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3117140793272881</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2686151435202724</v>
+        <v>0.2693742267907467</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3577758048740679</v>
+        <v>0.3546155285706532</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>280</v>
@@ -7068,19 +7068,19 @@
         <v>306268</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>277508</v>
+        <v>276064</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>340716</v>
+        <v>336879</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.308325956471809</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2793726694396615</v>
+        <v>0.2779188187114415</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3430046013143757</v>
+        <v>0.3391416770619357</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>3614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1079</v>
+        <v>1098</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9466</v>
+        <v>11572</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007160525643438771</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002138688659047413</v>
+        <v>0.00217508498020701</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01875459445503018</v>
+        <v>0.02292591641164856</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -7118,19 +7118,19 @@
         <v>7126</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3030</v>
+        <v>3007</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13884</v>
+        <v>13959</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01458429473128193</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006201083009941643</v>
+        <v>0.006154741119394694</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02841622289637505</v>
+        <v>0.0285699929167765</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -7139,19 +7139,19 @@
         <v>10740</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5143</v>
+        <v>5322</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19965</v>
+        <v>18403</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.010812039432363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005177648980746334</v>
+        <v>0.005357655760736083</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02009950897286525</v>
+        <v>0.01852625459603576</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>53757</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>39759</v>
+        <v>40517</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>70095</v>
+        <v>69961</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01600572808236296</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01183807731391789</v>
+        <v>0.01206368748448685</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02087040900369553</v>
+        <v>0.02083044599186253</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>51</v>
@@ -7264,19 +7264,19 @@
         <v>53508</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>40904</v>
+        <v>38756</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70325</v>
+        <v>68896</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01520235396890136</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01162135051178089</v>
+        <v>0.01101122664798236</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01998041247608748</v>
+        <v>0.01957439657986078</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>102</v>
@@ -7285,19 +7285,19 @@
         <v>107264</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>87044</v>
+        <v>88109</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>127468</v>
+        <v>130619</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01559463293140509</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01265492596436636</v>
+        <v>0.01280974900996837</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01853199105676792</v>
+        <v>0.01899008533740633</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>324446</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>290621</v>
+        <v>289451</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>358245</v>
+        <v>365328</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09660177326865743</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08653055416256938</v>
+        <v>0.08618198705958401</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1066650273812485</v>
+        <v>0.1087739810174672</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>288</v>
@@ -7335,19 +7335,19 @@
         <v>301833</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>270415</v>
+        <v>267264</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>337242</v>
+        <v>334973</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0857553413719149</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07682901261254436</v>
+        <v>0.0759339099680942</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09581569764450271</v>
+        <v>0.09517106026253055</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>590</v>
@@ -7356,19 +7356,19 @@
         <v>626279</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>583332</v>
+        <v>576650</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>679364</v>
+        <v>672426</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09105153772679656</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08480770777396669</v>
+        <v>0.08383615462611864</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09876922508971002</v>
+        <v>0.0977605328197715</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>2043653</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1987153</v>
+        <v>1990720</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2103106</v>
+        <v>2105904</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6084841496025931</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.591661668442114</v>
+        <v>0.5927237674990407</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6261858598889217</v>
+        <v>0.6270188392499934</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2006</v>
@@ -7406,19 +7406,19 @@
         <v>2115673</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2055614</v>
+        <v>2056373</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2173548</v>
+        <v>2172807</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6010952609506836</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5840316276477296</v>
+        <v>0.5842472661244358</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6175385550273685</v>
+        <v>0.6173280545379458</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3968</v>
@@ -7427,19 +7427,19 @@
         <v>4159326</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4068088</v>
+        <v>4077530</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4233256</v>
+        <v>4248788</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6047031760251904</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5914386319789483</v>
+        <v>0.592811278071794</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6154515789016607</v>
+        <v>0.6177096855508487</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>896609</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>844374</v>
+        <v>840379</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>946744</v>
+        <v>949676</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2669594643769111</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2514066748596679</v>
+        <v>0.2502173111362554</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2818867928686144</v>
+        <v>0.2827598064063719</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>912</v>
@@ -7477,19 +7477,19 @@
         <v>986755</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>931820</v>
+        <v>931676</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1044266</v>
+        <v>1039587</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2803524131391301</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2647444752944714</v>
+        <v>0.2647036770917899</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2966921090273112</v>
+        <v>0.2953628589387406</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1759</v>
@@ -7498,19 +7498,19 @@
         <v>1883365</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1815524</v>
+        <v>1807407</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1962426</v>
+        <v>1961450</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2738127799131211</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2639497850216844</v>
+        <v>0.2627696358144928</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2853071412543401</v>
+        <v>0.2851652474721514</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>40131</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>28194</v>
+        <v>28247</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>57186</v>
+        <v>57193</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01194888466947537</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008394504678814217</v>
+        <v>0.00841022058307112</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0170267133512205</v>
+        <v>0.01702895646334064</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -7548,19 +7548,19 @@
         <v>61928</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>46156</v>
+        <v>47997</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>78998</v>
+        <v>80980</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01759463056937014</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01311357035948654</v>
+        <v>0.01363665322207105</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02244464676530076</v>
+        <v>0.02300753467699027</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>93</v>
@@ -7569,19 +7569,19 @@
         <v>102059</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>83000</v>
+        <v>83219</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>124608</v>
+        <v>123723</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01483787340348679</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01206701215309925</v>
+        <v>0.01209876170339711</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01811609164197453</v>
+        <v>0.01798746957774857</v>
       </c>
     </row>
     <row r="33">
